--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ncam1-Robo1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ncam1-Robo1.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.300794</v>
+        <v>0.3912683333333333</v>
       </c>
       <c r="H2">
-        <v>0.902382</v>
+        <v>1.173805</v>
       </c>
       <c r="I2">
-        <v>0.003836667885433927</v>
+        <v>0.004923718964983145</v>
       </c>
       <c r="J2">
-        <v>0.003836667885433927</v>
+        <v>0.004923718964983145</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.150539</v>
+        <v>0.3465496666666667</v>
       </c>
       <c r="N2">
-        <v>0.451617</v>
+        <v>1.039649</v>
       </c>
       <c r="O2">
-        <v>0.004131430002607021</v>
+        <v>0.008996151488293185</v>
       </c>
       <c r="P2">
-        <v>0.004131430002607021</v>
+        <v>0.008996151488293185</v>
       </c>
       <c r="Q2">
-        <v>0.045281227966</v>
+        <v>0.1355939104938889</v>
       </c>
       <c r="R2">
-        <v>0.4075310516940001</v>
+        <v>1.220345194445</v>
       </c>
       <c r="S2">
-        <v>1.585092481192056E-05</v>
+        <v>4.42945216947705E-05</v>
       </c>
       <c r="T2">
-        <v>1.585092481192056E-05</v>
+        <v>4.42945216947705E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.300794</v>
+        <v>0.3912683333333333</v>
       </c>
       <c r="H3">
-        <v>0.902382</v>
+        <v>1.173805</v>
       </c>
       <c r="I3">
-        <v>0.003836667885433927</v>
+        <v>0.004923718964983145</v>
       </c>
       <c r="J3">
-        <v>0.003836667885433927</v>
+        <v>0.004923718964983145</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>22.077736</v>
       </c>
       <c r="N3">
-        <v>66.233208</v>
+        <v>66.23320799999999</v>
       </c>
       <c r="O3">
-        <v>0.6059069138232426</v>
+        <v>0.5731203249593199</v>
       </c>
       <c r="P3">
-        <v>0.6059069138232426</v>
+        <v>0.5731203249593199</v>
       </c>
       <c r="Q3">
-        <v>6.640850522384</v>
+        <v>8.638318968493332</v>
       </c>
       <c r="R3">
-        <v>59.767654701456</v>
+        <v>77.74487071643999</v>
       </c>
       <c r="S3">
-        <v>0.002324663597828017</v>
+        <v>0.002821883413219506</v>
       </c>
       <c r="T3">
-        <v>0.002324663597828017</v>
+        <v>0.002821883413219506</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.300794</v>
+        <v>0.3912683333333333</v>
       </c>
       <c r="H4">
-        <v>0.902382</v>
+        <v>1.173805</v>
       </c>
       <c r="I4">
-        <v>0.003836667885433927</v>
+        <v>0.004923718964983145</v>
       </c>
       <c r="J4">
-        <v>0.003836667885433927</v>
+        <v>0.004923718964983145</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.19334466666667</v>
+        <v>16.08941833333333</v>
       </c>
       <c r="N4">
-        <v>42.580034</v>
+        <v>48.268255</v>
       </c>
       <c r="O4">
-        <v>0.3895257042574284</v>
+        <v>0.4176683996767803</v>
       </c>
       <c r="P4">
-        <v>0.3895257042574284</v>
+        <v>0.4176683996767803</v>
       </c>
       <c r="Q4">
-        <v>4.269272915665334</v>
+        <v>6.295279895586112</v>
       </c>
       <c r="R4">
-        <v>38.423456240988</v>
+        <v>56.65751906027501</v>
       </c>
       <c r="S4">
-        <v>0.001494480760075509</v>
+        <v>0.002056481820562723</v>
       </c>
       <c r="T4">
-        <v>0.001494480760075509</v>
+        <v>0.002056481820562723</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.300794</v>
+        <v>0.3912683333333333</v>
       </c>
       <c r="H5">
-        <v>0.902382</v>
+        <v>1.173805</v>
       </c>
       <c r="I5">
-        <v>0.003836667885433927</v>
+        <v>0.004923718964983145</v>
       </c>
       <c r="J5">
-        <v>0.003836667885433927</v>
+        <v>0.004923718964983145</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.015885</v>
+        <v>0.008287000000000001</v>
       </c>
       <c r="N5">
-        <v>0.047655</v>
+        <v>0.024861</v>
       </c>
       <c r="O5">
-        <v>0.0004359519167219957</v>
+        <v>0.0002151238756065334</v>
       </c>
       <c r="P5">
-        <v>0.0004359519167219958</v>
+        <v>0.0002151238756065334</v>
       </c>
       <c r="Q5">
-        <v>0.00477811269</v>
+        <v>0.003242440678333334</v>
       </c>
       <c r="R5">
-        <v>0.04300301421</v>
+        <v>0.029181966105</v>
       </c>
       <c r="S5">
-        <v>1.672602718480647E-06</v>
+        <v>1.059209506144563E-06</v>
       </c>
       <c r="T5">
-        <v>1.672602718480647E-06</v>
+        <v>1.059209506144564E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>18.805976</v>
       </c>
       <c r="I6">
-        <v>0.07995758356598556</v>
+        <v>0.07888477275715973</v>
       </c>
       <c r="J6">
-        <v>0.07995758356598556</v>
+        <v>0.07888477275715973</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.150539</v>
+        <v>0.3465496666666667</v>
       </c>
       <c r="N6">
-        <v>0.451617</v>
+        <v>1.039649</v>
       </c>
       <c r="O6">
-        <v>0.004131430002607021</v>
+        <v>0.008996151488293185</v>
       </c>
       <c r="P6">
-        <v>0.004131430002607021</v>
+        <v>0.008996151488293185</v>
       </c>
       <c r="Q6">
-        <v>0.9436776070213334</v>
+        <v>2.172401571380445</v>
       </c>
       <c r="R6">
-        <v>8.493098463192002</v>
+        <v>19.551614142424</v>
       </c>
       <c r="S6">
-        <v>0.0003303391596804708</v>
+        <v>0.0007096593658429921</v>
       </c>
       <c r="T6">
-        <v>0.0003303391596804708</v>
+        <v>0.0007096593658429921</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>18.805976</v>
       </c>
       <c r="I7">
-        <v>0.07995758356598556</v>
+        <v>0.07888477275715973</v>
       </c>
       <c r="J7">
-        <v>0.07995758356598556</v>
+        <v>0.07888477275715973</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>22.077736</v>
       </c>
       <c r="N7">
-        <v>66.233208</v>
+        <v>66.23320799999999</v>
       </c>
       <c r="O7">
-        <v>0.6059069138232426</v>
+        <v>0.5731203249593199</v>
       </c>
       <c r="P7">
-        <v>0.6059069138232426</v>
+        <v>0.5731203249593199</v>
       </c>
       <c r="Q7">
-        <v>138.3977911167787</v>
+        <v>138.3977911167786</v>
       </c>
       <c r="R7">
         <v>1245.580120051008</v>
       </c>
       <c r="S7">
-        <v>0.04844685269523033</v>
+        <v>0.04521046659692549</v>
       </c>
       <c r="T7">
-        <v>0.04844685269523033</v>
+        <v>0.04521046659692549</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>18.805976</v>
       </c>
       <c r="I8">
-        <v>0.07995758356598556</v>
+        <v>0.07888477275715973</v>
       </c>
       <c r="J8">
-        <v>0.07995758356598556</v>
+        <v>0.07888477275715973</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.19334466666667</v>
+        <v>16.08941833333333</v>
       </c>
       <c r="N8">
-        <v>42.580034</v>
+        <v>48.268255</v>
       </c>
       <c r="O8">
-        <v>0.3895257042574284</v>
+        <v>0.4176683996767803</v>
       </c>
       <c r="P8">
-        <v>0.3895257042574284</v>
+        <v>0.4176683996767803</v>
       </c>
       <c r="Q8">
-        <v>88.97323305368712</v>
+        <v>100.8590716768756</v>
       </c>
       <c r="R8">
-        <v>800.7590974831842</v>
+        <v>907.7316450918801</v>
       </c>
       <c r="S8">
-        <v>0.03114553404926271</v>
+        <v>0.03294767679634938</v>
       </c>
       <c r="T8">
-        <v>0.03114553404926271</v>
+        <v>0.03294767679634938</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>18.805976</v>
       </c>
       <c r="I9">
-        <v>0.07995758356598556</v>
+        <v>0.07888477275715973</v>
       </c>
       <c r="J9">
-        <v>0.07995758356598556</v>
+        <v>0.07888477275715973</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.015885</v>
+        <v>0.008287000000000001</v>
       </c>
       <c r="N9">
-        <v>0.047655</v>
+        <v>0.024861</v>
       </c>
       <c r="O9">
-        <v>0.0004359519167219957</v>
+        <v>0.0002151238756065334</v>
       </c>
       <c r="P9">
-        <v>0.0004359519167219958</v>
+        <v>0.0002151238756065334</v>
       </c>
       <c r="Q9">
-        <v>0.09957764292</v>
+        <v>0.05194837437066668</v>
       </c>
       <c r="R9">
-        <v>0.8961987862800002</v>
+        <v>0.467535369336</v>
       </c>
       <c r="S9">
-        <v>3.485766181205055E-05</v>
+        <v>1.696999804186089E-05</v>
       </c>
       <c r="T9">
-        <v>3.485766181205056E-05</v>
+        <v>1.696999804186089E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>71.78493233333334</v>
+        <v>72.68848166666666</v>
       </c>
       <c r="H10">
-        <v>215.354797</v>
+        <v>218.065445</v>
       </c>
       <c r="I10">
-        <v>0.9156264571146617</v>
+        <v>0.9147115297293749</v>
       </c>
       <c r="J10">
-        <v>0.9156264571146617</v>
+        <v>0.9147115297293749</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.150539</v>
+        <v>0.3465496666666667</v>
       </c>
       <c r="N10">
-        <v>0.451617</v>
+        <v>1.039649</v>
       </c>
       <c r="O10">
-        <v>0.004131430002607021</v>
+        <v>0.008996151488293185</v>
       </c>
       <c r="P10">
-        <v>0.004131430002607021</v>
+        <v>0.008996151488293185</v>
       </c>
       <c r="Q10">
-        <v>10.80643192852767</v>
+        <v>25.19016909208944</v>
       </c>
       <c r="R10">
-        <v>97.25788735674902</v>
+        <v>226.711521828805</v>
       </c>
       <c r="S10">
-        <v>0.003782846616104284</v>
+        <v>0.00822888348953385</v>
       </c>
       <c r="T10">
-        <v>0.003782846616104284</v>
+        <v>0.00822888348953385</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>71.78493233333334</v>
+        <v>72.68848166666666</v>
       </c>
       <c r="H11">
-        <v>215.354797</v>
+        <v>218.065445</v>
       </c>
       <c r="I11">
-        <v>0.9156264571146617</v>
+        <v>0.9147115297293749</v>
       </c>
       <c r="J11">
-        <v>0.9156264571146617</v>
+        <v>0.9147115297293749</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>22.077736</v>
       </c>
       <c r="N11">
-        <v>66.233208</v>
+        <v>66.23320799999999</v>
       </c>
       <c r="O11">
-        <v>0.6059069138232426</v>
+        <v>0.5731203249593199</v>
       </c>
       <c r="P11">
-        <v>0.6059069138232426</v>
+        <v>0.5731203249593199</v>
       </c>
       <c r="Q11">
-        <v>1584.848784833198</v>
+        <v>1604.797108477506</v>
       </c>
       <c r="R11">
-        <v>14263.63906349878</v>
+        <v>14443.17397629756</v>
       </c>
       <c r="S11">
-        <v>0.5547844008452543</v>
+        <v>0.5242397691625359</v>
       </c>
       <c r="T11">
-        <v>0.5547844008452543</v>
+        <v>0.5242397691625359</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>71.78493233333334</v>
+        <v>72.68848166666666</v>
       </c>
       <c r="H12">
-        <v>215.354797</v>
+        <v>218.065445</v>
       </c>
       <c r="I12">
-        <v>0.9156264571146617</v>
+        <v>0.9147115297293749</v>
       </c>
       <c r="J12">
-        <v>0.9156264571146617</v>
+        <v>0.9147115297293749</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.19334466666667</v>
+        <v>16.08941833333333</v>
       </c>
       <c r="N12">
-        <v>42.580034</v>
+        <v>48.268255</v>
       </c>
       <c r="O12">
-        <v>0.3895257042574284</v>
+        <v>0.4176683996767803</v>
       </c>
       <c r="P12">
-        <v>0.3895257042574284</v>
+        <v>0.4176683996767803</v>
       </c>
       <c r="Q12">
-        <v>1018.868286480345</v>
+        <v>1169.515389549831</v>
       </c>
       <c r="R12">
-        <v>9169.814578323099</v>
+        <v>10525.63850594847</v>
       </c>
       <c r="S12">
-        <v>0.3566600405443227</v>
+        <v>0.3820461007879676</v>
       </c>
       <c r="T12">
-        <v>0.3566600405443227</v>
+        <v>0.3820461007879677</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>71.78493233333334</v>
+        <v>72.68848166666666</v>
       </c>
       <c r="H13">
-        <v>215.354797</v>
+        <v>218.065445</v>
       </c>
       <c r="I13">
-        <v>0.9156264571146617</v>
+        <v>0.9147115297293749</v>
       </c>
       <c r="J13">
-        <v>0.9156264571146617</v>
+        <v>0.9147115297293749</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.015885</v>
+        <v>0.008287000000000001</v>
       </c>
       <c r="N13">
-        <v>0.047655</v>
+        <v>0.024861</v>
       </c>
       <c r="O13">
-        <v>0.0004359519167219957</v>
+        <v>0.0002151238756065334</v>
       </c>
       <c r="P13">
-        <v>0.0004359519167219958</v>
+        <v>0.0002151238756065334</v>
       </c>
       <c r="Q13">
-        <v>1.140303650115</v>
+        <v>0.6023694475716667</v>
       </c>
       <c r="R13">
-        <v>10.262732851035</v>
+        <v>5.421325028145</v>
       </c>
       <c r="S13">
-        <v>0.000399169108980507</v>
+        <v>0.0001967762893373639</v>
       </c>
       <c r="T13">
-        <v>0.0003991691089805071</v>
+        <v>0.000196776289337364</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.04541633333333334</v>
+        <v>0.117608</v>
       </c>
       <c r="H14">
-        <v>0.136249</v>
+        <v>0.352824</v>
       </c>
       <c r="I14">
-        <v>0.0005792914339187696</v>
+        <v>0.001479978548482255</v>
       </c>
       <c r="J14">
-        <v>0.0005792914339187696</v>
+        <v>0.001479978548482255</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.150539</v>
+        <v>0.3465496666666667</v>
       </c>
       <c r="N14">
-        <v>0.451617</v>
+        <v>1.039649</v>
       </c>
       <c r="O14">
-        <v>0.004131430002607021</v>
+        <v>0.008996151488293185</v>
       </c>
       <c r="P14">
-        <v>0.004131430002607021</v>
+        <v>0.008996151488293185</v>
       </c>
       <c r="Q14">
-        <v>0.006836929403666667</v>
+        <v>0.04075701319733334</v>
       </c>
       <c r="R14">
-        <v>0.06153236463300001</v>
+        <v>0.366813118776</v>
       </c>
       <c r="S14">
-        <v>2.393302010345247E-06</v>
+        <v>1.331411122157062E-05</v>
       </c>
       <c r="T14">
-        <v>2.393302010345247E-06</v>
+        <v>1.331411122157062E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.04541633333333334</v>
+        <v>0.117608</v>
       </c>
       <c r="H15">
-        <v>0.136249</v>
+        <v>0.352824</v>
       </c>
       <c r="I15">
-        <v>0.0005792914339187696</v>
+        <v>0.001479978548482255</v>
       </c>
       <c r="J15">
-        <v>0.0005792914339187696</v>
+        <v>0.001479978548482255</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>22.077736</v>
       </c>
       <c r="N15">
-        <v>66.233208</v>
+        <v>66.23320799999999</v>
       </c>
       <c r="O15">
-        <v>0.6059069138232426</v>
+        <v>0.5731203249593199</v>
       </c>
       <c r="P15">
-        <v>0.6059069138232426</v>
+        <v>0.5731203249593199</v>
       </c>
       <c r="Q15">
-        <v>1.002689817421333</v>
+        <v>2.596518375488</v>
       </c>
       <c r="R15">
-        <v>9.024208356792002</v>
+        <v>23.368665379392</v>
       </c>
       <c r="S15">
-        <v>0.0003509966849299626</v>
+        <v>0.0008482057866389725</v>
       </c>
       <c r="T15">
-        <v>0.0003509966849299626</v>
+        <v>0.0008482057866389725</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.04541633333333334</v>
+        <v>0.117608</v>
       </c>
       <c r="H16">
-        <v>0.136249</v>
+        <v>0.352824</v>
       </c>
       <c r="I16">
-        <v>0.0005792914339187696</v>
+        <v>0.001479978548482255</v>
       </c>
       <c r="J16">
-        <v>0.0005792914339187696</v>
+        <v>0.001479978548482255</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.19334466666667</v>
+        <v>16.08941833333333</v>
       </c>
       <c r="N16">
-        <v>42.580034</v>
+        <v>48.268255</v>
       </c>
       <c r="O16">
-        <v>0.3895257042574284</v>
+        <v>0.4176683996767803</v>
       </c>
       <c r="P16">
-        <v>0.3895257042574284</v>
+        <v>0.4176683996767803</v>
       </c>
       <c r="Q16">
-        <v>0.6446096724962224</v>
+        <v>1.892244311346667</v>
       </c>
       <c r="R16">
-        <v>5.801487052466001</v>
+        <v>17.03019880212</v>
       </c>
       <c r="S16">
-        <v>0.0002256489037675043</v>
+        <v>0.0006181402719005475</v>
       </c>
       <c r="T16">
-        <v>0.0002256489037675043</v>
+        <v>0.0006181402719005476</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.04541633333333334</v>
+        <v>0.117608</v>
       </c>
       <c r="H17">
-        <v>0.136249</v>
+        <v>0.352824</v>
       </c>
       <c r="I17">
-        <v>0.0005792914339187696</v>
+        <v>0.001479978548482255</v>
       </c>
       <c r="J17">
-        <v>0.0005792914339187696</v>
+        <v>0.001479978548482255</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1485,28 +1485,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.015885</v>
+        <v>0.008287000000000001</v>
       </c>
       <c r="N17">
-        <v>0.047655</v>
+        <v>0.024861</v>
       </c>
       <c r="O17">
-        <v>0.0004359519167219957</v>
+        <v>0.0002151238756065334</v>
       </c>
       <c r="P17">
-        <v>0.0004359519167219958</v>
+        <v>0.0002151238756065334</v>
       </c>
       <c r="Q17">
-        <v>0.0007214384550000001</v>
+        <v>0.0009746174960000002</v>
       </c>
       <c r="R17">
-        <v>0.006492946095000001</v>
+        <v>0.008771557464000001</v>
       </c>
       <c r="S17">
-        <v>2.525432109575209E-07</v>
+        <v>3.183787211640345E-07</v>
       </c>
       <c r="T17">
-        <v>2.52543210957521E-07</v>
+        <v>3.183787211640345E-07</v>
       </c>
     </row>
   </sheetData>
